--- a/data/pca/factorExposure/factorExposure_2012-06-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-11.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01682373960102328</v>
+        <v>0.02198952939593822</v>
       </c>
       <c r="C2">
-        <v>0.02992574241008438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02455303301177755</v>
+      </c>
+      <c r="D2">
+        <v>-0.001910514698730475</v>
+      </c>
+      <c r="E2">
+        <v>0.02859482854737</v>
+      </c>
+      <c r="F2">
+        <v>-0.008255046786566711</v>
+      </c>
+      <c r="G2">
+        <v>-0.008502050994915956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06811017619125036</v>
+        <v>0.07852318114979519</v>
       </c>
       <c r="C4">
-        <v>0.06388210895285892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.0413401267525433</v>
+      </c>
+      <c r="D4">
+        <v>0.07010566945023886</v>
+      </c>
+      <c r="E4">
+        <v>0.0001336592310064511</v>
+      </c>
+      <c r="F4">
+        <v>-0.03260861625023249</v>
+      </c>
+      <c r="G4">
+        <v>0.006130307764805074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09721420232141066</v>
+        <v>0.1147744636927722</v>
       </c>
       <c r="C6">
-        <v>0.06895178350334612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.0416667527895809</v>
+      </c>
+      <c r="D6">
+        <v>0.01223020801182382</v>
+      </c>
+      <c r="E6">
+        <v>-0.007708168594669562</v>
+      </c>
+      <c r="F6">
+        <v>-0.04698589605228798</v>
+      </c>
+      <c r="G6">
+        <v>-0.01182301452393117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04546598226150722</v>
+        <v>0.05756507983617515</v>
       </c>
       <c r="C7">
-        <v>0.03344593770926447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02365414660304281</v>
+      </c>
+      <c r="D7">
+        <v>0.03633105590674901</v>
+      </c>
+      <c r="E7">
+        <v>0.01915050271344489</v>
+      </c>
+      <c r="F7">
+        <v>-0.03444912359904807</v>
+      </c>
+      <c r="G7">
+        <v>0.04299908892467566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0334287144103527</v>
+        <v>0.03703440788219204</v>
       </c>
       <c r="C8">
-        <v>0.0281383485109366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0161838904540665</v>
+      </c>
+      <c r="D8">
+        <v>0.03606215372829646</v>
+      </c>
+      <c r="E8">
+        <v>0.005222931995697211</v>
+      </c>
+      <c r="F8">
+        <v>-0.05529812048228277</v>
+      </c>
+      <c r="G8">
+        <v>-0.02494742402528544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06266108815593274</v>
+        <v>0.07277771160182461</v>
       </c>
       <c r="C9">
-        <v>0.0488558844475467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02860095103517749</v>
+      </c>
+      <c r="D9">
+        <v>0.06727608812257463</v>
+      </c>
+      <c r="E9">
+        <v>0.01566443485847818</v>
+      </c>
+      <c r="F9">
+        <v>-0.03866587129910334</v>
+      </c>
+      <c r="G9">
+        <v>0.006270006929240439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02581631312687875</v>
+        <v>0.0396012042740404</v>
       </c>
       <c r="C10">
-        <v>0.03778657799029227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04105183901697845</v>
+      </c>
+      <c r="D10">
+        <v>-0.1814169109773641</v>
+      </c>
+      <c r="E10">
+        <v>0.04577201527492842</v>
+      </c>
+      <c r="F10">
+        <v>-0.03521212435039545</v>
+      </c>
+      <c r="G10">
+        <v>0.0439210817546796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06662004386798201</v>
+        <v>0.07569893425227424</v>
       </c>
       <c r="C11">
-        <v>0.05220315696451897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02885023943406634</v>
+      </c>
+      <c r="D11">
+        <v>0.06761724029919559</v>
+      </c>
+      <c r="E11">
+        <v>-0.01172725477231715</v>
+      </c>
+      <c r="F11">
+        <v>-0.03238908100614392</v>
+      </c>
+      <c r="G11">
+        <v>0.02066990580776687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05162303900981607</v>
+        <v>0.06326501581807364</v>
       </c>
       <c r="C12">
-        <v>0.05257516212254247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03490578294404403</v>
+      </c>
+      <c r="D12">
+        <v>0.05239433538283256</v>
+      </c>
+      <c r="E12">
+        <v>0.007984374862840047</v>
+      </c>
+      <c r="F12">
+        <v>-0.03009677458771587</v>
+      </c>
+      <c r="G12">
+        <v>0.01607526124280079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05810428470636402</v>
+        <v>0.06435833276527028</v>
       </c>
       <c r="C13">
-        <v>0.0539146301777274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03105174699035225</v>
+      </c>
+      <c r="D13">
+        <v>0.04784959621011117</v>
+      </c>
+      <c r="E13">
+        <v>0.006747180183895405</v>
+      </c>
+      <c r="F13">
+        <v>-0.01621383336492043</v>
+      </c>
+      <c r="G13">
+        <v>0.00721593889945591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03096858007693867</v>
+        <v>0.03919268854798733</v>
       </c>
       <c r="C14">
-        <v>0.02825634824163303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02080209040424711</v>
+      </c>
+      <c r="D14">
+        <v>0.009562981424845142</v>
+      </c>
+      <c r="E14">
+        <v>0.0135547961099381</v>
+      </c>
+      <c r="F14">
+        <v>-0.01482851027038528</v>
+      </c>
+      <c r="G14">
+        <v>0.0001502108222676691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03998735468343829</v>
+        <v>0.04153584352149584</v>
       </c>
       <c r="C15">
-        <v>0.01378285542703633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002223560060283082</v>
+      </c>
+      <c r="D15">
+        <v>0.01570546761163475</v>
+      </c>
+      <c r="E15">
+        <v>0.03890251084473826</v>
+      </c>
+      <c r="F15">
+        <v>-0.002467752014272805</v>
+      </c>
+      <c r="G15">
+        <v>-0.02004011826598849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05621671875249157</v>
+        <v>0.06395048129641771</v>
       </c>
       <c r="C16">
-        <v>0.04640526844436024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02721760470642751</v>
+      </c>
+      <c r="D16">
+        <v>0.06074199248253586</v>
+      </c>
+      <c r="E16">
+        <v>-0.0008614344765979792</v>
+      </c>
+      <c r="F16">
+        <v>-0.02967845367591595</v>
+      </c>
+      <c r="G16">
+        <v>0.008877130469077253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06088710732646504</v>
+        <v>0.06189012263016263</v>
       </c>
       <c r="C20">
-        <v>0.03887553549366543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01643596815095121</v>
+      </c>
+      <c r="D20">
+        <v>0.04944472955527968</v>
+      </c>
+      <c r="E20">
+        <v>0.01398258795272317</v>
+      </c>
+      <c r="F20">
+        <v>-0.02669687444131385</v>
+      </c>
+      <c r="G20">
+        <v>0.01281528220016585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02595338774550074</v>
+        <v>0.0242004449700877</v>
       </c>
       <c r="C21">
-        <v>0.001361597911349799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008569373349862536</v>
+      </c>
+      <c r="D21">
+        <v>0.03015507573955271</v>
+      </c>
+      <c r="E21">
+        <v>0.08753649482206538</v>
+      </c>
+      <c r="F21">
+        <v>-0.001975921121472956</v>
+      </c>
+      <c r="G21">
+        <v>-0.01603091844500797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06696371454020564</v>
+        <v>0.06456989914977496</v>
       </c>
       <c r="C22">
-        <v>0.07288767546807548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04235539447410606</v>
+      </c>
+      <c r="D22">
+        <v>0.1041518124330973</v>
+      </c>
+      <c r="E22">
+        <v>0.6155691269326253</v>
+      </c>
+      <c r="F22">
+        <v>0.115636696389528</v>
+      </c>
+      <c r="G22">
+        <v>0.02451871455618533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06816843496156447</v>
+        <v>0.06515593797776846</v>
       </c>
       <c r="C23">
-        <v>0.07273016459514764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04162145288017841</v>
+      </c>
+      <c r="D23">
+        <v>0.1049252106173574</v>
+      </c>
+      <c r="E23">
+        <v>0.614569072944548</v>
+      </c>
+      <c r="F23">
+        <v>0.1151214242102507</v>
+      </c>
+      <c r="G23">
+        <v>0.02266654837585362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0647602767050927</v>
+        <v>0.07549548362170121</v>
       </c>
       <c r="C24">
-        <v>0.05477142301599254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03219368881735022</v>
+      </c>
+      <c r="D24">
+        <v>0.06510845489376564</v>
+      </c>
+      <c r="E24">
+        <v>0.006281906658002515</v>
+      </c>
+      <c r="F24">
+        <v>-0.04191193881299787</v>
+      </c>
+      <c r="G24">
+        <v>0.008292854097151855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06436564673834573</v>
+        <v>0.07366978575441187</v>
       </c>
       <c r="C25">
-        <v>0.0591231687561859</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03648643359982241</v>
+      </c>
+      <c r="D25">
+        <v>0.06322322073285852</v>
+      </c>
+      <c r="E25">
+        <v>0.009257467392410788</v>
+      </c>
+      <c r="F25">
+        <v>-0.0380469602513742</v>
+      </c>
+      <c r="G25">
+        <v>-0.002461870995187077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03814705132583866</v>
+        <v>0.04159831342259021</v>
       </c>
       <c r="C26">
-        <v>0.01517252766776587</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005106628949807299</v>
+      </c>
+      <c r="D26">
+        <v>0.02312926302317118</v>
+      </c>
+      <c r="E26">
+        <v>0.03402862714329217</v>
+      </c>
+      <c r="F26">
+        <v>-0.02295898058402055</v>
+      </c>
+      <c r="G26">
+        <v>0.01367440055987413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04910287586502424</v>
+        <v>0.07275608670807268</v>
       </c>
       <c r="C28">
-        <v>0.07369260379171046</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07550061879563841</v>
+      </c>
+      <c r="D28">
+        <v>-0.3222973867563424</v>
+      </c>
+      <c r="E28">
+        <v>0.03701229772619076</v>
+      </c>
+      <c r="F28">
+        <v>-0.04682387206401833</v>
+      </c>
+      <c r="G28">
+        <v>-0.03144576768284316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03540932381787344</v>
+        <v>0.04420384672877839</v>
       </c>
       <c r="C29">
-        <v>0.03204701083338281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02403144801973799</v>
+      </c>
+      <c r="D29">
+        <v>0.01017466479448516</v>
+      </c>
+      <c r="E29">
+        <v>0.03759623734264725</v>
+      </c>
+      <c r="F29">
+        <v>-0.01312103020907277</v>
+      </c>
+      <c r="G29">
+        <v>0.01658868381939006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1141571401721208</v>
+        <v>0.1331976139378154</v>
       </c>
       <c r="C30">
-        <v>0.1032431309875997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06468421886824882</v>
+      </c>
+      <c r="D30">
+        <v>0.09606231661810369</v>
+      </c>
+      <c r="E30">
+        <v>0.0414666656233165</v>
+      </c>
+      <c r="F30">
+        <v>-0.02855100260806188</v>
+      </c>
+      <c r="G30">
+        <v>-0.01513044689924993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03798578648541741</v>
+        <v>0.04442778823946769</v>
       </c>
       <c r="C31">
-        <v>0.02329054470627821</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01300108391170825</v>
+      </c>
+      <c r="D31">
+        <v>0.02853959703221603</v>
+      </c>
+      <c r="E31">
+        <v>0.01994639047044201</v>
+      </c>
+      <c r="F31">
+        <v>-0.01283622488923615</v>
+      </c>
+      <c r="G31">
+        <v>0.02482297498571671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03303175263899745</v>
+        <v>0.03283614073872749</v>
       </c>
       <c r="C32">
-        <v>0.02267442563892797</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01205058951804004</v>
+      </c>
+      <c r="D32">
+        <v>0.01286559732004997</v>
+      </c>
+      <c r="E32">
+        <v>0.06483268894407672</v>
+      </c>
+      <c r="F32">
+        <v>0.001341274342234168</v>
+      </c>
+      <c r="G32">
+        <v>-0.02489256241161931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07353421735202016</v>
+        <v>0.0881562949746573</v>
       </c>
       <c r="C33">
-        <v>0.05470435671018957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03274999984547412</v>
+      </c>
+      <c r="D33">
+        <v>0.06116410886425502</v>
+      </c>
+      <c r="E33">
+        <v>0.01192661215361711</v>
+      </c>
+      <c r="F33">
+        <v>-0.007542498271712147</v>
+      </c>
+      <c r="G33">
+        <v>0.01429939014826037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05067953617732245</v>
+        <v>0.05796761759119</v>
       </c>
       <c r="C34">
-        <v>0.03467482976795176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01730908823396666</v>
+      </c>
+      <c r="D34">
+        <v>0.0601566062969455</v>
+      </c>
+      <c r="E34">
+        <v>0.0004520580370908857</v>
+      </c>
+      <c r="F34">
+        <v>-0.0243170109626371</v>
+      </c>
+      <c r="G34">
+        <v>0.003702833751390085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03583214603515322</v>
+        <v>0.04002873278686663</v>
       </c>
       <c r="C35">
-        <v>0.01230128214705535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.003740737969557866</v>
+      </c>
+      <c r="D35">
+        <v>0.01285234118071036</v>
+      </c>
+      <c r="E35">
+        <v>0.02178740374427733</v>
+      </c>
+      <c r="F35">
+        <v>0.0002018856965173816</v>
+      </c>
+      <c r="G35">
+        <v>0.009422106170706971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01783137744865191</v>
+        <v>0.02503925661940375</v>
       </c>
       <c r="C36">
-        <v>0.01693255952697647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01212249863048194</v>
+      </c>
+      <c r="D36">
+        <v>0.01992145144479808</v>
+      </c>
+      <c r="E36">
+        <v>0.03549188364832</v>
+      </c>
+      <c r="F36">
+        <v>-0.01922275537414789</v>
+      </c>
+      <c r="G36">
+        <v>0.01716497326062219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03796272800957593</v>
+        <v>0.04014813039995498</v>
       </c>
       <c r="C38">
-        <v>0.01108835118557049</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001784994597862696</v>
+      </c>
+      <c r="D38">
+        <v>0.01327322074028313</v>
+      </c>
+      <c r="E38">
+        <v>0.05952190124851657</v>
+      </c>
+      <c r="F38">
+        <v>0.01998246902325614</v>
+      </c>
+      <c r="G38">
+        <v>-0.01679313768478064</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08669244215173293</v>
+        <v>0.102268972868435</v>
       </c>
       <c r="C39">
-        <v>0.0868978743941432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05564594031254148</v>
+      </c>
+      <c r="D39">
+        <v>0.08563310893982663</v>
+      </c>
+      <c r="E39">
+        <v>-0.01349202266852912</v>
+      </c>
+      <c r="F39">
+        <v>-0.01958243531200501</v>
+      </c>
+      <c r="G39">
+        <v>-0.02004613263321262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0644076006136885</v>
+        <v>0.07112424635547647</v>
       </c>
       <c r="C40">
-        <v>0.0567961212219749</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03436427446364855</v>
+      </c>
+      <c r="D40">
+        <v>0.01235137271833959</v>
+      </c>
+      <c r="E40">
+        <v>0.02803813623231967</v>
+      </c>
+      <c r="F40">
+        <v>0.04576907401436555</v>
+      </c>
+      <c r="G40">
+        <v>-0.06438987529624954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0392256138146015</v>
+        <v>0.04374797313801439</v>
       </c>
       <c r="C41">
-        <v>0.01703748389814643</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006511661120145187</v>
+      </c>
+      <c r="D41">
+        <v>0.0406088017308112</v>
+      </c>
+      <c r="E41">
+        <v>0.006838064582091533</v>
+      </c>
+      <c r="F41">
+        <v>0.006547810411237666</v>
+      </c>
+      <c r="G41">
+        <v>-0.01042843017867262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04320616561954614</v>
+        <v>0.05272343951165696</v>
       </c>
       <c r="C43">
-        <v>0.03576568587248221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02108934149462515</v>
+      </c>
+      <c r="D43">
+        <v>0.02918836325550416</v>
+      </c>
+      <c r="E43">
+        <v>0.01687602166576202</v>
+      </c>
+      <c r="F43">
+        <v>-0.0142432328065133</v>
+      </c>
+      <c r="G43">
+        <v>0.00978040659219977</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08849305999250505</v>
+        <v>0.09168875274021901</v>
       </c>
       <c r="C44">
-        <v>0.09525558548677325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.05956067626243231</v>
+      </c>
+      <c r="D44">
+        <v>0.05839144078329103</v>
+      </c>
+      <c r="E44">
+        <v>0.09472131965299603</v>
+      </c>
+      <c r="F44">
+        <v>-0.06248803817776546</v>
+      </c>
+      <c r="G44">
+        <v>-0.02080097875311517</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02648718038562828</v>
+        <v>0.02809148840813117</v>
       </c>
       <c r="C46">
-        <v>0.01853186658763769</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009538697174120815</v>
+      </c>
+      <c r="D46">
+        <v>0.03334199608938466</v>
+      </c>
+      <c r="E46">
+        <v>0.01699799678480157</v>
+      </c>
+      <c r="F46">
+        <v>-0.01881801483406381</v>
+      </c>
+      <c r="G46">
+        <v>0.001189750709674074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02674084590211007</v>
+        <v>0.03032254437586602</v>
       </c>
       <c r="C47">
-        <v>0.02132597276741913</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01343731892095724</v>
+      </c>
+      <c r="D47">
+        <v>0.01560049813961077</v>
+      </c>
+      <c r="E47">
+        <v>0.04988830554400318</v>
+      </c>
+      <c r="F47">
+        <v>-0.01469302945915355</v>
+      </c>
+      <c r="G47">
+        <v>0.03190336941501241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02810347123979844</v>
+        <v>0.03262898076461256</v>
       </c>
       <c r="C48">
-        <v>0.02030316479590842</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01136984844441111</v>
+      </c>
+      <c r="D48">
+        <v>0.03217859545024743</v>
+      </c>
+      <c r="E48">
+        <v>0.04089979768339269</v>
+      </c>
+      <c r="F48">
+        <v>-0.01830310598809075</v>
+      </c>
+      <c r="G48">
+        <v>0.00175437417600792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1494740337942314</v>
+        <v>0.1782224764804189</v>
       </c>
       <c r="C49">
-        <v>0.09333717488752614</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05214542222131923</v>
+      </c>
+      <c r="D49">
+        <v>0.01226290014574499</v>
+      </c>
+      <c r="E49">
+        <v>-0.1310922355780224</v>
+      </c>
+      <c r="F49">
+        <v>-0.022778908791461</v>
+      </c>
+      <c r="G49">
+        <v>0.0482192073877766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03318193651129234</v>
+        <v>0.04226007878595882</v>
       </c>
       <c r="C50">
-        <v>0.02771180391194843</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02036701920933248</v>
+      </c>
+      <c r="D50">
+        <v>0.03623890442540748</v>
+      </c>
+      <c r="E50">
+        <v>0.0442589989623313</v>
+      </c>
+      <c r="F50">
+        <v>-0.02532605575793739</v>
+      </c>
+      <c r="G50">
+        <v>0.02397788983042211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02514524233222742</v>
+        <v>0.02793229667469456</v>
       </c>
       <c r="C51">
-        <v>0.01470519601305492</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.007697238779589211</v>
+      </c>
+      <c r="D51">
+        <v>0.02672347689336173</v>
+      </c>
+      <c r="E51">
+        <v>0.01715090379592953</v>
+      </c>
+      <c r="F51">
+        <v>-0.01065232384648961</v>
+      </c>
+      <c r="G51">
+        <v>-0.004983054435424641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1367175388896264</v>
+        <v>0.1581689162041969</v>
       </c>
       <c r="C53">
-        <v>0.1011180919030817</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06507418179351242</v>
+      </c>
+      <c r="D53">
+        <v>0.02253201252449367</v>
+      </c>
+      <c r="E53">
+        <v>-0.04176945226103718</v>
+      </c>
+      <c r="F53">
+        <v>-0.01397787244605082</v>
+      </c>
+      <c r="G53">
+        <v>0.003072540253508063</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05151103866079219</v>
+        <v>0.05509924067435568</v>
       </c>
       <c r="C54">
-        <v>0.02915841083442807</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01162786204042108</v>
+      </c>
+      <c r="D54">
+        <v>0.03486748357038424</v>
+      </c>
+      <c r="E54">
+        <v>0.04355801749933269</v>
+      </c>
+      <c r="F54">
+        <v>-0.01566566534388242</v>
+      </c>
+      <c r="G54">
+        <v>-0.001878293562770079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09134118271321688</v>
+        <v>0.09973533675937399</v>
       </c>
       <c r="C55">
-        <v>0.06634510973252922</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04079489271201375</v>
+      </c>
+      <c r="D55">
+        <v>0.03185685874233796</v>
+      </c>
+      <c r="E55">
+        <v>0.00635145845836285</v>
+      </c>
+      <c r="F55">
+        <v>-0.01885745740148388</v>
+      </c>
+      <c r="G55">
+        <v>-0.002231250381077349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.135946571824102</v>
+        <v>0.1579153779178618</v>
       </c>
       <c r="C56">
-        <v>0.1119564600802203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07382060641607661</v>
+      </c>
+      <c r="D56">
+        <v>0.01831060400440526</v>
+      </c>
+      <c r="E56">
+        <v>-0.04075783709002993</v>
+      </c>
+      <c r="F56">
+        <v>-0.04695793271424646</v>
+      </c>
+      <c r="G56">
+        <v>0.01985701430592791</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1137776226244473</v>
+        <v>0.1026777160644388</v>
       </c>
       <c r="C58">
-        <v>0.03067459910581461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.008906855549235019</v>
+      </c>
+      <c r="D58">
+        <v>0.05242566563866749</v>
+      </c>
+      <c r="E58">
+        <v>0.1862879944118256</v>
+      </c>
+      <c r="F58">
+        <v>-0.04579542745319731</v>
+      </c>
+      <c r="G58">
+        <v>0.04062708077814656</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1041245551668371</v>
+        <v>0.1465181961420207</v>
       </c>
       <c r="C59">
-        <v>0.086334108898986</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08585044414517057</v>
+      </c>
+      <c r="D59">
+        <v>-0.3539582934228083</v>
+      </c>
+      <c r="E59">
+        <v>0.04865440076538377</v>
+      </c>
+      <c r="F59">
+        <v>0.02249681426325242</v>
+      </c>
+      <c r="G59">
+        <v>0.03086657793641002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1829994722219639</v>
+        <v>0.2182350293941668</v>
       </c>
       <c r="C60">
-        <v>0.1218166521926918</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07713106029006479</v>
+      </c>
+      <c r="D60">
+        <v>0.01507241921635081</v>
+      </c>
+      <c r="E60">
+        <v>-0.07285134196020235</v>
+      </c>
+      <c r="F60">
+        <v>-0.03963218719161713</v>
+      </c>
+      <c r="G60">
+        <v>-0.02510730414049369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07476307728817531</v>
+        <v>0.0862942777306645</v>
       </c>
       <c r="C61">
-        <v>0.06395946763993948</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03980236764107946</v>
+      </c>
+      <c r="D61">
+        <v>0.06567433847691366</v>
+      </c>
+      <c r="E61">
+        <v>-0.01907583369364653</v>
+      </c>
+      <c r="F61">
+        <v>-0.007381878833799397</v>
+      </c>
+      <c r="G61">
+        <v>0.01685106805224658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1161463326253532</v>
+        <v>0.1385381614705001</v>
       </c>
       <c r="C62">
-        <v>0.08561026982222489</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05538913104338535</v>
+      </c>
+      <c r="D62">
+        <v>0.02413648498332074</v>
+      </c>
+      <c r="E62">
+        <v>-0.05664515240630714</v>
+      </c>
+      <c r="F62">
+        <v>-0.01744760996242888</v>
+      </c>
+      <c r="G62">
+        <v>-0.02730959693529873</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.05042910450250868</v>
+        <v>0.05175085099366925</v>
       </c>
       <c r="C63">
-        <v>0.03242883299229452</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01606462528122774</v>
+      </c>
+      <c r="D63">
+        <v>0.03240311483730136</v>
+      </c>
+      <c r="E63">
+        <v>0.0466569528364758</v>
+      </c>
+      <c r="F63">
+        <v>-0.0121403715194764</v>
+      </c>
+      <c r="G63">
+        <v>-0.02665675983688572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1070431150383241</v>
+        <v>0.112933575212295</v>
       </c>
       <c r="C64">
-        <v>0.04676992174271011</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01449180221916888</v>
+      </c>
+      <c r="D64">
+        <v>0.04661910830305566</v>
+      </c>
+      <c r="E64">
+        <v>0.02525661263546118</v>
+      </c>
+      <c r="F64">
+        <v>-0.05737226209957542</v>
+      </c>
+      <c r="G64">
+        <v>-0.02262312120297928</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1092180495766076</v>
+        <v>0.1239919693496749</v>
       </c>
       <c r="C65">
-        <v>0.06916563389568278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04038389304187887</v>
+      </c>
+      <c r="D65">
+        <v>0.009697319651470202</v>
+      </c>
+      <c r="E65">
+        <v>-0.001881226194412417</v>
+      </c>
+      <c r="F65">
+        <v>-0.06435462020040258</v>
+      </c>
+      <c r="G65">
+        <v>-0.02684983964993026</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1333415675588072</v>
+        <v>0.1529828374504866</v>
       </c>
       <c r="C66">
-        <v>0.09758868050893793</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05505527483610648</v>
+      </c>
+      <c r="D66">
+        <v>0.1180037903727887</v>
+      </c>
+      <c r="E66">
+        <v>-0.05687909136624082</v>
+      </c>
+      <c r="F66">
+        <v>-0.0405046534907904</v>
+      </c>
+      <c r="G66">
+        <v>-0.01523710065587445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0696020047912503</v>
+        <v>0.07517286972269697</v>
       </c>
       <c r="C67">
-        <v>0.02418892027610457</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.006922130168452669</v>
+      </c>
+      <c r="D67">
+        <v>0.02494715251930136</v>
+      </c>
+      <c r="E67">
+        <v>0.02508640130456728</v>
+      </c>
+      <c r="F67">
+        <v>0.0007818868694758017</v>
+      </c>
+      <c r="G67">
+        <v>0.004438618586419959</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05098086727671147</v>
+        <v>0.0670607712839157</v>
       </c>
       <c r="C68">
-        <v>0.0481617698930504</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04981539469628062</v>
+      </c>
+      <c r="D68">
+        <v>-0.2680397511022576</v>
+      </c>
+      <c r="E68">
+        <v>0.05129244858759066</v>
+      </c>
+      <c r="F68">
+        <v>-0.01074276938510733</v>
+      </c>
+      <c r="G68">
+        <v>0.00763503448723392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.049205241469428</v>
+        <v>0.05120842891001989</v>
       </c>
       <c r="C69">
-        <v>0.02626852026745298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.009720185613630057</v>
+      </c>
+      <c r="D69">
+        <v>0.03365667168421829</v>
+      </c>
+      <c r="E69">
+        <v>0.02145819901603312</v>
+      </c>
+      <c r="F69">
+        <v>0.001206697307276625</v>
+      </c>
+      <c r="G69">
+        <v>0.01105473366012127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.004839664553464559</v>
+        <v>0.01673971427656027</v>
       </c>
       <c r="C70">
-        <v>-0.002731194295817657</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0002955887436513263</v>
+      </c>
+      <c r="D70">
+        <v>-0.007570902043451324</v>
+      </c>
+      <c r="E70">
+        <v>-0.02085609140820223</v>
+      </c>
+      <c r="F70">
+        <v>-0.01313369130167263</v>
+      </c>
+      <c r="G70">
+        <v>0.02056113026814605</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05462914902719721</v>
+        <v>0.07145941097412108</v>
       </c>
       <c r="C71">
-        <v>0.04702169066659817</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04912049345659999</v>
+      </c>
+      <c r="D71">
+        <v>-0.2996624757680001</v>
+      </c>
+      <c r="E71">
+        <v>0.04761650894186971</v>
+      </c>
+      <c r="F71">
+        <v>-0.03413631620910771</v>
+      </c>
+      <c r="G71">
+        <v>0.002787159443808853</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1308126404199369</v>
+        <v>0.1539691350369127</v>
       </c>
       <c r="C72">
-        <v>0.07954663161312135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04524556972423609</v>
+      </c>
+      <c r="D72">
+        <v>0.008049269271415496</v>
+      </c>
+      <c r="E72">
+        <v>-0.08706040770521768</v>
+      </c>
+      <c r="F72">
+        <v>0.1613554547912067</v>
+      </c>
+      <c r="G72">
+        <v>-0.1176190297063532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2431938345769642</v>
+        <v>0.2748010198349074</v>
       </c>
       <c r="C73">
-        <v>0.1458712148108977</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07691369511176391</v>
+      </c>
+      <c r="D73">
+        <v>0.0698030487992569</v>
+      </c>
+      <c r="E73">
+        <v>-0.1898430698313219</v>
+      </c>
+      <c r="F73">
+        <v>-0.07074782631751618</v>
+      </c>
+      <c r="G73">
+        <v>0.1798117728107602</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07192366985534367</v>
+        <v>0.08926154582024962</v>
       </c>
       <c r="C74">
-        <v>0.08503000870673803</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06341527965668968</v>
+      </c>
+      <c r="D74">
+        <v>0.03607869311093254</v>
+      </c>
+      <c r="E74">
+        <v>-0.007040530195327377</v>
+      </c>
+      <c r="F74">
+        <v>0.01267724868393857</v>
+      </c>
+      <c r="G74">
+        <v>0.03133797061255294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09412972603235184</v>
+        <v>0.1044259304841353</v>
       </c>
       <c r="C75">
-        <v>0.0672692828893777</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.0348862514583256</v>
+      </c>
+      <c r="D75">
+        <v>0.015124550585833</v>
+      </c>
+      <c r="E75">
+        <v>-0.000967917064116438</v>
+      </c>
+      <c r="F75">
+        <v>-0.05328542972856975</v>
+      </c>
+      <c r="G75">
+        <v>0.02031158318475065</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1147270889503195</v>
+        <v>0.1331782525451889</v>
       </c>
       <c r="C76">
-        <v>0.1009139904292191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06701320648180356</v>
+      </c>
+      <c r="D76">
+        <v>0.05680861092756063</v>
+      </c>
+      <c r="E76">
+        <v>0.00817629783581348</v>
+      </c>
+      <c r="F76">
+        <v>-0.0609797442234771</v>
+      </c>
+      <c r="G76">
+        <v>0.006245647991408044</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.1151893397373615</v>
+        <v>0.114168738907496</v>
       </c>
       <c r="C77">
-        <v>0.06559467633225782</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.02410593262254359</v>
+      </c>
+      <c r="D77">
+        <v>0.02423386876782552</v>
+      </c>
+      <c r="E77">
+        <v>-0.007431134432038613</v>
+      </c>
+      <c r="F77">
+        <v>-0.2642778407509285</v>
+      </c>
+      <c r="G77">
+        <v>-0.8798550883713966</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08538957428149915</v>
+        <v>0.1065074200730807</v>
       </c>
       <c r="C78">
-        <v>0.05166090482870504</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.030176503849327</v>
+      </c>
+      <c r="D78">
+        <v>0.06919967928292148</v>
+      </c>
+      <c r="E78">
+        <v>0.05976512512942714</v>
+      </c>
+      <c r="F78">
+        <v>-0.008615330580664583</v>
+      </c>
+      <c r="G78">
+        <v>-0.03076606962448819</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1323176530000301</v>
+        <v>0.150070128196243</v>
       </c>
       <c r="C79">
-        <v>0.105379744228485</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06293880625785614</v>
+      </c>
+      <c r="D79">
+        <v>0.02854370302820674</v>
+      </c>
+      <c r="E79">
+        <v>-0.02709331064983474</v>
+      </c>
+      <c r="F79">
+        <v>-0.02662634531344108</v>
+      </c>
+      <c r="G79">
+        <v>0.02325411039355584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03927495601839148</v>
+        <v>0.03801176942022597</v>
       </c>
       <c r="C80">
-        <v>0.02035196742292406</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006951114558636558</v>
+      </c>
+      <c r="D80">
+        <v>0.02736254537925291</v>
+      </c>
+      <c r="E80">
+        <v>-0.003566078048289865</v>
+      </c>
+      <c r="F80">
+        <v>0.02624024359540582</v>
+      </c>
+      <c r="G80">
+        <v>0.03663692715563362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1072887748870455</v>
+        <v>0.1202220614505122</v>
       </c>
       <c r="C81">
-        <v>0.08044452169244569</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04686549270591499</v>
+      </c>
+      <c r="D81">
+        <v>0.03187618440841233</v>
+      </c>
+      <c r="E81">
+        <v>-0.008265501859040897</v>
+      </c>
+      <c r="F81">
+        <v>-0.02826076618619753</v>
+      </c>
+      <c r="G81">
+        <v>0.05930354485626823</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1154110116621664</v>
+        <v>0.1273391518194489</v>
       </c>
       <c r="C82">
-        <v>0.0933384551991045</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05750944380177337</v>
+      </c>
+      <c r="D82">
+        <v>0.0353094931468431</v>
+      </c>
+      <c r="E82">
+        <v>-0.02679893873193444</v>
+      </c>
+      <c r="F82">
+        <v>-0.04976680720464865</v>
+      </c>
+      <c r="G82">
+        <v>0.04896807294213006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07292059071518726</v>
+        <v>0.07544046069890055</v>
       </c>
       <c r="C83">
-        <v>0.02343279648980216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.001787094468056373</v>
+      </c>
+      <c r="D83">
+        <v>0.04269117129868991</v>
+      </c>
+      <c r="E83">
+        <v>0.01188074997818315</v>
+      </c>
+      <c r="F83">
+        <v>-0.009316815916474531</v>
+      </c>
+      <c r="G83">
+        <v>0.08230525791187375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02272918178182045</v>
+        <v>0.03269076226742159</v>
       </c>
       <c r="C84">
-        <v>0.02067963981648526</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01728540259847398</v>
+      </c>
+      <c r="D84">
+        <v>0.02406206424863207</v>
+      </c>
+      <c r="E84">
+        <v>0.01685397985744797</v>
+      </c>
+      <c r="F84">
+        <v>0.05048589290771632</v>
+      </c>
+      <c r="G84">
+        <v>0.06005482635170661</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1128886433146439</v>
+        <v>0.1182429146220574</v>
       </c>
       <c r="C85">
-        <v>0.07955052376901021</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04068960258105481</v>
+      </c>
+      <c r="D85">
+        <v>0.0315661398061798</v>
+      </c>
+      <c r="E85">
+        <v>0.004019700912317599</v>
+      </c>
+      <c r="F85">
+        <v>-0.07401134431792628</v>
+      </c>
+      <c r="G85">
+        <v>0.02539691619315256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04413387658774082</v>
+        <v>0.04746976083554892</v>
       </c>
       <c r="C86">
-        <v>0.02227347625250769</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.008518677862307703</v>
+      </c>
+      <c r="D86">
+        <v>0.01490516650518964</v>
+      </c>
+      <c r="E86">
+        <v>0.04903989947971973</v>
+      </c>
+      <c r="F86">
+        <v>-0.01344901279403151</v>
+      </c>
+      <c r="G86">
+        <v>0.0241704219864504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1164983257502213</v>
+        <v>0.1229524311227407</v>
       </c>
       <c r="C87">
-        <v>0.08790257984001199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04482238468734326</v>
+      </c>
+      <c r="D87">
+        <v>0.07016369172209458</v>
+      </c>
+      <c r="E87">
+        <v>0.02136765690780564</v>
+      </c>
+      <c r="F87">
+        <v>-0.03771779693411152</v>
+      </c>
+      <c r="G87">
+        <v>-0.1001798731265626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05264450752646056</v>
+        <v>0.05901189072941301</v>
       </c>
       <c r="C88">
-        <v>0.04141242529009148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02444809137955489</v>
+      </c>
+      <c r="D88">
+        <v>0.02556532205330497</v>
+      </c>
+      <c r="E88">
+        <v>0.02086279293374618</v>
+      </c>
+      <c r="F88">
+        <v>-0.01077107298589539</v>
+      </c>
+      <c r="G88">
+        <v>-0.01352173926142871</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07254171556103312</v>
+        <v>0.1050367960020934</v>
       </c>
       <c r="C89">
-        <v>0.07364806819525468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07740417302996749</v>
+      </c>
+      <c r="D89">
+        <v>-0.3300687450965099</v>
+      </c>
+      <c r="E89">
+        <v>0.07837355774416702</v>
+      </c>
+      <c r="F89">
+        <v>-0.06102294010959251</v>
+      </c>
+      <c r="G89">
+        <v>0.02088274685089863</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06433360382210222</v>
+        <v>0.08641111509835506</v>
       </c>
       <c r="C90">
-        <v>0.06457235721585095</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06352788562953342</v>
+      </c>
+      <c r="D90">
+        <v>-0.3080285512534237</v>
+      </c>
+      <c r="E90">
+        <v>0.06486061827157784</v>
+      </c>
+      <c r="F90">
+        <v>0.01359203073822476</v>
+      </c>
+      <c r="G90">
+        <v>0.007453848247076881</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07582878868675791</v>
+        <v>0.08801502535707272</v>
       </c>
       <c r="C91">
-        <v>0.06788496856720573</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04419967545442264</v>
+      </c>
+      <c r="D91">
+        <v>0.02694685822039035</v>
+      </c>
+      <c r="E91">
+        <v>0.01268069824101601</v>
+      </c>
+      <c r="F91">
+        <v>-0.007325424383331977</v>
+      </c>
+      <c r="G91">
+        <v>0.03983430957089541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.0779514714733034</v>
+        <v>0.101907847632936</v>
       </c>
       <c r="C92">
-        <v>0.07236420056076319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06865616460039844</v>
+      </c>
+      <c r="D92">
+        <v>-0.3317514483616438</v>
+      </c>
+      <c r="E92">
+        <v>0.04520005489210651</v>
+      </c>
+      <c r="F92">
+        <v>-0.02295387539536263</v>
+      </c>
+      <c r="G92">
+        <v>0.003471826983898447</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05809226618957913</v>
+        <v>0.08398578760084469</v>
       </c>
       <c r="C93">
-        <v>0.06080386051516689</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06524671905815882</v>
+      </c>
+      <c r="D93">
+        <v>-0.3022243936968185</v>
+      </c>
+      <c r="E93">
+        <v>0.03690383463289631</v>
+      </c>
+      <c r="F93">
+        <v>-0.0365872490145985</v>
+      </c>
+      <c r="G93">
+        <v>-0.004385296532618717</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1235083158905643</v>
+        <v>0.1277366763156931</v>
       </c>
       <c r="C94">
-        <v>0.08013526692900634</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.0350916516404949</v>
+      </c>
+      <c r="D94">
+        <v>0.0556735130563282</v>
+      </c>
+      <c r="E94">
+        <v>-0.02368628836472851</v>
+      </c>
+      <c r="F94">
+        <v>-0.0310775964056865</v>
+      </c>
+      <c r="G94">
+        <v>0.04579156644750439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1106516247757398</v>
+        <v>0.1189357180422667</v>
       </c>
       <c r="C95">
-        <v>0.05880830334755351</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02233780758111318</v>
+      </c>
+      <c r="D95">
+        <v>0.05819336992539651</v>
+      </c>
+      <c r="E95">
+        <v>-0.01461584331823829</v>
+      </c>
+      <c r="F95">
+        <v>-0.02378589390421538</v>
+      </c>
+      <c r="G95">
+        <v>0.01462955057539551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.197727358640695</v>
+        <v>0.2212008407650949</v>
       </c>
       <c r="C97">
-        <v>0.07334939329761238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02967539262241296</v>
+      </c>
+      <c r="D97">
+        <v>-0.01350203618422303</v>
+      </c>
+      <c r="E97">
+        <v>-0.140307265471285</v>
+      </c>
+      <c r="F97">
+        <v>0.8893410694433446</v>
+      </c>
+      <c r="G97">
+        <v>-0.2120926450478288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2330885433399784</v>
+        <v>0.2650497265670373</v>
       </c>
       <c r="C98">
-        <v>0.1275046484654561</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06070162580833492</v>
+      </c>
+      <c r="D98">
+        <v>0.04888136515457477</v>
+      </c>
+      <c r="E98">
+        <v>-0.1609239235796281</v>
+      </c>
+      <c r="F98">
+        <v>-0.03392290041759372</v>
+      </c>
+      <c r="G98">
+        <v>0.2643726431265911</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5711860496680143</v>
+        <v>0.3459365161355961</v>
       </c>
       <c r="C99">
-        <v>-0.8103905209301241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9257912836577666</v>
+      </c>
+      <c r="D99">
+        <v>-0.08281077639648628</v>
+      </c>
+      <c r="E99">
+        <v>0.04415793180483923</v>
+      </c>
+      <c r="F99">
+        <v>-0.04150272160413428</v>
+      </c>
+      <c r="G99">
+        <v>0.0131241564875135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03559989250720867</v>
+        <v>0.04426081122670989</v>
       </c>
       <c r="C101">
-        <v>0.03219752133378581</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02406722707622896</v>
+      </c>
+      <c r="D101">
+        <v>0.01082426246213036</v>
+      </c>
+      <c r="E101">
+        <v>0.03700362273627183</v>
+      </c>
+      <c r="F101">
+        <v>-0.01265169771592232</v>
+      </c>
+      <c r="G101">
+        <v>0.01675672658105399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
